--- a/2017级大数据班.xlsx
+++ b/2017级大数据班.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\河套17数据可视化\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4753E9A-09B8-4AE7-9FF9-4D8091B4F5FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56222613-851A-42B2-8B0D-3C3B7BC82939}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,18 +21,19 @@
     <sheet name="template" sheetId="9" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">实训成绩!$D$6:$H$57</definedName>
     <definedName name="JieDCJ" localSheetId="1">{"A","B","C","D","F","N";90,80,70,60,40,0}</definedName>
     <definedName name="KouA">20%</definedName>
     <definedName name="KouB">40%</definedName>
     <definedName name="KouC">100%</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">成绩分布!$2:6</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="164">
   <si>
     <t>填写
 说明</t>
@@ -1883,6 +1884,222 @@
   </si>
   <si>
     <t>王慧</t>
+  </si>
+  <si>
+    <r>
+      <t>12-21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-23</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-23</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-23</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>当兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>樊巧莲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据可视化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本实训共分为四个阶段，第一阶段为直方图和折线图，其目的是让学生尽快熟练office办公软件，掌握数据可视化的基本规律；第二阶段为圆饼图，其目的是帮助学生从不同的可视化角度，了解数据的变化；第三阶段为散点图和特殊图形，其目的是让学生掌握更过的可视化手段，实现指定需求的可视化图表；第四阶段为动态图形和拓展，其目的是让学生实现类实时可视化，了解更多的office可视化图表工具。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本实训四个阶段的项目都已完成，综合评分表现最好的学生有马旭、李佳乐，其中马旭的学习积极性最高，课堂互动很积极；表现最差的学生有柴旭龙、张嘉栋，其中柴旭龙表现对该课程不感兴趣，经过课下沟通，愿意完成该课程学习任务，张嘉栋表示不感兴趣，经过沟通，也愿意完成基本的项目任务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生对计算机的整体掌握程度比较好，但是数学的一些相关推理思路比较欠缺，如能在相关的校园活动中把数学思维应用于社会实践中，是比较好。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解学生对数据特性的掌握程度，数据在社会生产实践中的意义；是否了解数据可视化的目的和社会生产实践中的意义；是否了解目前应用比较广泛的数据可视化工具；能否列举当下在数据可视化方面比较有影响力的企业及相关产品。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对工具的熟练程度达到什么程度，对还未掌握使用的学生进行相应的辅导。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程的难以程度如何，并对课程进行适当的调整。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查项目进度，调查学生的完成程度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>及时的复习、总结，对疑难问题综合处理。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1897,7 +2114,7 @@
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2131,6 +2348,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2489,7 +2721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2756,6 +2988,31 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="36" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3276,8 +3533,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="120"/>
-        <c:axId val="60441728"/>
-        <c:axId val="62242176"/>
+        <c:axId val="208335616"/>
+        <c:axId val="208276480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3476,11 +3733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="62239104"/>
-        <c:axId val="62240640"/>
+        <c:axId val="207958016"/>
+        <c:axId val="207959936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62239104"/>
+        <c:axId val="207958016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,7 +3772,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62240640"/>
+        <c:crossAx val="207959936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3523,7 +3780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62240640"/>
+        <c:axId val="207959936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -3562,13 +3819,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62239104"/>
+        <c:crossAx val="207958016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62242176"/>
+        <c:axId val="208276480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5000000000000012E-2"/>
@@ -3607,12 +3864,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60441728"/>
+        <c:crossAx val="208335616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="60441728"/>
+        <c:axId val="208335616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,7 +3879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62242176"/>
+        <c:crossAx val="208276480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3860,19 +4117,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,8 +4149,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="80"/>
-        <c:axId val="62730240"/>
-        <c:axId val="62731776"/>
+        <c:axId val="256279680"/>
+        <c:axId val="256281216"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -4009,19 +4266,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.564102564102564E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.17948717948717949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.69230769230769229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.10256410256410256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4041,11 +4298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="80"/>
-        <c:axId val="62739200"/>
-        <c:axId val="62733312"/>
+        <c:axId val="207456128"/>
+        <c:axId val="207454592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62730240"/>
+        <c:axId val="256279680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4339,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62731776"/>
+        <c:crossAx val="256281216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4090,7 +4347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62731776"/>
+        <c:axId val="256281216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-40"/>
@@ -4128,12 +4385,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62730240"/>
+        <c:crossAx val="256279680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62733312"/>
+        <c:axId val="207454592"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="0.8"/>
@@ -4172,12 +4429,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62739200"/>
+        <c:crossAx val="207456128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="62739200"/>
+        <c:axId val="207456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62733312"/>
+        <c:crossAx val="207454592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6117,8 +6374,8 @@
   </sheetPr>
   <dimension ref="B1:AG57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6136,161 +6393,165 @@
   <sheetData>
     <row r="1" spans="2:33" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:33" s="37" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
     </row>
     <row r="3" spans="2:33" s="37" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
     </row>
     <row r="4" spans="2:33" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="82" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="83" t="s">
+      <c r="J4" s="95"/>
+      <c r="K4" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="88" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="82" t="s">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84" t="s">
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="85" t="str">
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="92">
         <f ca="1">IF(COUNTIF(OFFSET(D6,0,0,1,COLUMN()-3-3),"&gt;=!")=0,"",COUNTIF(OFFSET(D6,0,0,1,COLUMN()-3-3),"&gt;=!"))</f>
-        <v/>
-      </c>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
+        <v>9</v>
+      </c>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
       <c r="AE4" s="57"/>
     </row>
     <row r="5" spans="2:33" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="88" t="s">
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88" t="s">
+      <c r="J5" s="95"/>
+      <c r="K5" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84" t="s">
+      <c r="Q5" s="95"/>
+      <c r="R5" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="85">
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="92">
         <f>IF(COUNTIF(C7:C80,"&gt;=!")=0,"",COUNTIF(C7:C80,"&gt;=!"))</f>
         <v>39</v>
       </c>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="87"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="94"/>
     </row>
     <row r="6" spans="2:33" s="37" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
@@ -6299,15 +6560,33 @@
       <c r="C6" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
+      <c r="D6" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>147</v>
+      </c>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
@@ -6382,11 +6661,11 @@
       </c>
       <c r="AA7" s="44">
         <f ca="1">IF(TRIM(C7)="","",IF(INDIRECT("R4C[-1]",0)="",0,1-SUM(INDIRECT("RC[-2]",0),INDIRECT("RC[-1]",0))/INDIRECT("R4C[-1]",0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="32">
         <f t="shared" ref="AB7:AB38" ca="1" si="0">IF(TRIM(C7)="","",IF(INDIRECT("R4C[-2]",0)="",0,(1-(KouA*INDIRECT("RC[-4]",0)+KouB*INDIRECT("RC[-3]",0)+KouC*INDIRECT("RC[-2]",0))/INDIRECT("R4C[-2]",0))*100))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC7" s="45"/>
     </row>
@@ -6432,11 +6711,11 @@
       </c>
       <c r="AA8" s="44">
         <f t="shared" ref="AA8:AA52" ca="1" si="4">IF(TRIM(C8)="","",IF(INDIRECT("R4C[-1]",0)="",0,1-SUM(INDIRECT("RC[-2]",0),INDIRECT("RC[-1]",0))/INDIRECT("R4C[-1]",0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC8" s="46"/>
     </row>
@@ -6482,11 +6761,11 @@
       </c>
       <c r="AA9" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="46"/>
     </row>
@@ -6532,11 +6811,11 @@
       </c>
       <c r="AA10" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC10" s="46"/>
     </row>
@@ -6582,11 +6861,11 @@
       </c>
       <c r="AA11" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC11" s="46"/>
     </row>
@@ -6632,11 +6911,11 @@
       </c>
       <c r="AA12" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC12" s="46"/>
     </row>
@@ -6682,11 +6961,11 @@
       </c>
       <c r="AA13" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC13" s="46"/>
     </row>
@@ -6732,11 +7011,11 @@
       </c>
       <c r="AA14" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC14" s="46"/>
     </row>
@@ -6782,11 +7061,11 @@
       </c>
       <c r="AA15" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC15" s="46"/>
     </row>
@@ -6832,11 +7111,11 @@
       </c>
       <c r="AA16" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC16" s="46"/>
     </row>
@@ -6882,11 +7161,11 @@
       </c>
       <c r="AA17" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="46"/>
     </row>
@@ -6932,11 +7211,11 @@
       </c>
       <c r="AA18" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC18" s="46"/>
     </row>
@@ -6945,50 +7224,52 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="43">
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="85">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="43">
+      <c r="Y19" s="85">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="43">
+      <c r="Z19" s="85">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="44">
+      <c r="AA19" s="86">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="46"/>
+        <v>100</v>
+      </c>
+      <c r="AC19" s="88" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="2:29" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="60">
@@ -7032,11 +7313,11 @@
       </c>
       <c r="AA20" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="46"/>
     </row>
@@ -7082,11 +7363,11 @@
       </c>
       <c r="AA21" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC21" s="46"/>
     </row>
@@ -7132,11 +7413,11 @@
       </c>
       <c r="AA22" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC22" s="46"/>
     </row>
@@ -7182,11 +7463,11 @@
       </c>
       <c r="AA23" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC23" s="46"/>
     </row>
@@ -7232,11 +7513,11 @@
       </c>
       <c r="AA24" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC24" s="46"/>
     </row>
@@ -7282,11 +7563,11 @@
       </c>
       <c r="AA25" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC25" s="46"/>
     </row>
@@ -7332,11 +7613,11 @@
       </c>
       <c r="AA26" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC26" s="46"/>
     </row>
@@ -7382,11 +7663,11 @@
       </c>
       <c r="AA27" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC27" s="46"/>
     </row>
@@ -7432,11 +7713,11 @@
       </c>
       <c r="AA28" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC28" s="46"/>
     </row>
@@ -7482,11 +7763,11 @@
       </c>
       <c r="AA29" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC29" s="46"/>
     </row>
@@ -7532,11 +7813,11 @@
       </c>
       <c r="AA30" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC30" s="46"/>
     </row>
@@ -7582,11 +7863,11 @@
       </c>
       <c r="AA31" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC31" s="46"/>
     </row>
@@ -7632,11 +7913,11 @@
       </c>
       <c r="AA32" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC32" s="46"/>
     </row>
@@ -7682,11 +7963,11 @@
       </c>
       <c r="AA33" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC33" s="46"/>
     </row>
@@ -7732,11 +8013,11 @@
       </c>
       <c r="AA34" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC34" s="46"/>
     </row>
@@ -7781,11 +8062,11 @@
       </c>
       <c r="AA35" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC35" s="46"/>
     </row>
@@ -7831,11 +8112,11 @@
       </c>
       <c r="AA36" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC36" s="46"/>
     </row>
@@ -7881,11 +8162,11 @@
       </c>
       <c r="AA37" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC37" s="46"/>
     </row>
@@ -7931,11 +8212,11 @@
       </c>
       <c r="AA38" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="32">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC38" s="46"/>
     </row>
@@ -7981,11 +8262,11 @@
       </c>
       <c r="AA39" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="32">
         <f t="shared" ref="AB39:AB52" ca="1" si="6">IF(TRIM(C39)="","",IF(INDIRECT("R4C[-2]",0)="",0,(1-(KouA*INDIRECT("RC[-4]",0)+KouB*INDIRECT("RC[-3]",0)+KouC*INDIRECT("RC[-2]",0))/INDIRECT("R4C[-2]",0))*100))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC39" s="46"/>
     </row>
@@ -8031,11 +8312,11 @@
       </c>
       <c r="AA40" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC40" s="46"/>
     </row>
@@ -8081,11 +8362,11 @@
       </c>
       <c r="AA41" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="46"/>
     </row>
@@ -8131,11 +8412,11 @@
       </c>
       <c r="AA42" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC42" s="46"/>
     </row>
@@ -8181,11 +8462,11 @@
       </c>
       <c r="AA43" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC43" s="46"/>
     </row>
@@ -8231,11 +8512,11 @@
       </c>
       <c r="AA44" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC44" s="46"/>
     </row>
@@ -8281,11 +8562,11 @@
       </c>
       <c r="AA45" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC45" s="46"/>
     </row>
@@ -8950,7 +9231,7 @@
   <dimension ref="B1:O58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8975,142 +9256,142 @@
   <sheetData>
     <row r="1" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" s="37" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="2:15" s="37" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
     </row>
     <row r="4" spans="2:15" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="99" t="str">
+      <c r="C4" s="95"/>
+      <c r="D4" s="106" t="str">
         <f>IF(TRIM(学生出勤!D4)&lt;&gt;"",学生出勤!D4,"")</f>
         <v>河套学院</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="102" t="str">
+      <c r="H4" s="109" t="str">
         <f>IF(TRIM(学生出勤!K4)&lt;&gt;"",学生出勤!K4,"")</f>
         <v>2017级</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="88" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="102" t="str">
+      <c r="K4" s="95"/>
+      <c r="L4" s="109" t="str">
         <f>IF(TRIM(学生出勤!R4)&lt;&gt;"",学生出勤!R4,"")</f>
         <v>大数据</v>
       </c>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
     </row>
     <row r="5" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="99" t="str">
+      <c r="C5" s="95"/>
+      <c r="D5" s="106" t="str">
         <f>IF(TRIM(学生出勤!D5)&lt;&gt;"",学生出勤!D5,"")</f>
         <v>17级大数据班</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="102" t="str">
+      <c r="H5" s="109" t="str">
         <f>IF(TRIM(学生出勤!K5)&lt;&gt;"",学生出勤!K5,"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="88" t="s">
+        <v>樊巧莲</v>
+      </c>
+      <c r="I5" s="109"/>
+      <c r="J5" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="102" t="str">
+      <c r="K5" s="95"/>
+      <c r="L5" s="109" t="str">
         <f>IF(TRIM(学生出勤!R5)&lt;&gt;"",学生出勤!R5,"")</f>
-        <v/>
-      </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
+        <v>数据可视化</v>
+      </c>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
     </row>
     <row r="6" spans="2:15" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="101"/>
+      <c r="F6" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="93" t="s">
+      <c r="G6" s="101"/>
+      <c r="H6" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="93" t="s">
+      <c r="I6" s="101"/>
+      <c r="J6" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="93" t="s">
+      <c r="K6" s="101"/>
+      <c r="L6" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="95" t="s">
+      <c r="M6" s="101"/>
+      <c r="N6" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="97" t="s">
+      <c r="O6" s="104" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="48" t="s">
         <v>72</v>
       </c>
@@ -9141,8 +9422,8 @@
       <c r="M7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="96"/>
-      <c r="O7" s="98"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="105"/>
     </row>
     <row r="8" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="41">
@@ -9153,19 +9434,27 @@
         <f>IF(TRIM(学生出勤!C7)&lt;&gt;"",TRIM(学生出勤!C7),"")</f>
         <v>马旭</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="E8" s="59"/>
-      <c r="F8" s="50"/>
+      <c r="F8" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="G8" s="46"/>
-      <c r="H8" s="50"/>
+      <c r="H8" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="I8" s="74"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="K8" s="46"/>
       <c r="L8" s="50"/>
       <c r="M8" s="46"/>
       <c r="N8" s="51">
         <f t="shared" ref="N8:N39" si="0">IF(TRIM(C8)="","",IF(COUNTA(D8,F8,H8,J8,L8)=0,0,SUM(IF(ISBLANK(D8),0,LOOKUP(D8,JieDCJ)),IF(ISBLANK(F8),0,LOOKUP(F8,JieDCJ)),IF(ISBLANK(H8),0,LOOKUP(H8,JieDCJ)),IF(ISBLANK(J8),0,LOOKUP(J8,JieDCJ)),IF(ISBLANK(L8),0,LOOKUP(L8,JieDCJ)))/COUNTA(D8,F8,H8,J8,L8)))</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O8" s="59"/>
     </row>
@@ -9178,19 +9467,27 @@
         <f>IF(TRIM(学生出勤!C8)&lt;&gt;"",TRIM(学生出勤!C8),"")</f>
         <v>孙婷婷</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E9" s="46"/>
-      <c r="F9" s="50"/>
+      <c r="F9" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G9" s="46"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I9" s="74"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K9" s="46"/>
       <c r="L9" s="50"/>
       <c r="M9" s="46"/>
       <c r="N9" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O9" s="46"/>
     </row>
@@ -9203,19 +9500,27 @@
         <f>IF(TRIM(学生出勤!C9)&lt;&gt;"",TRIM(学生出勤!C9),"")</f>
         <v>马晓楠</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E10" s="46"/>
-      <c r="F10" s="50"/>
+      <c r="F10" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G10" s="46"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I10" s="46"/>
-      <c r="J10" s="50"/>
+      <c r="J10" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K10" s="46"/>
       <c r="L10" s="50"/>
       <c r="M10" s="46"/>
       <c r="N10" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O10" s="46"/>
     </row>
@@ -9228,19 +9533,27 @@
         <f>IF(TRIM(学生出勤!C10)&lt;&gt;"",TRIM(学生出勤!C10),"")</f>
         <v>郝烨</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E11" s="46"/>
-      <c r="F11" s="50"/>
+      <c r="F11" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G11" s="46"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I11" s="46"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K11" s="46"/>
       <c r="L11" s="50"/>
       <c r="M11" s="46"/>
       <c r="N11" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O11" s="46"/>
     </row>
@@ -9253,19 +9566,27 @@
         <f>IF(TRIM(学生出勤!C11)&lt;&gt;"",TRIM(学生出勤!C11),"")</f>
         <v>满雪洁</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E12" s="46"/>
-      <c r="F12" s="50"/>
+      <c r="F12" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G12" s="46"/>
-      <c r="H12" s="50"/>
+      <c r="H12" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I12" s="59"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K12" s="46"/>
       <c r="L12" s="50"/>
       <c r="M12" s="46"/>
       <c r="N12" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O12" s="46"/>
     </row>
@@ -9278,19 +9599,27 @@
         <f>IF(TRIM(学生出勤!C12)&lt;&gt;"",TRIM(学生出勤!C12),"")</f>
         <v>赵慧颖</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E13" s="46"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G13" s="46"/>
-      <c r="H13" s="50"/>
+      <c r="H13" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I13" s="46"/>
-      <c r="J13" s="50"/>
+      <c r="J13" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K13" s="46"/>
       <c r="L13" s="50"/>
       <c r="M13" s="46"/>
       <c r="N13" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="O13" s="46"/>
     </row>
@@ -9303,19 +9632,27 @@
         <f>IF(TRIM(学生出勤!C13)&lt;&gt;"",TRIM(学生出勤!C13),"")</f>
         <v>司清汶</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E14" s="46"/>
-      <c r="F14" s="50"/>
+      <c r="F14" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="G14" s="46"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I14" s="46"/>
-      <c r="J14" s="50"/>
+      <c r="J14" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K14" s="46"/>
       <c r="L14" s="50"/>
       <c r="M14" s="46"/>
       <c r="N14" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="O14" s="59"/>
     </row>
@@ -9328,19 +9665,27 @@
         <f>IF(TRIM(学生出勤!C14)&lt;&gt;"",TRIM(学生出勤!C14),"")</f>
         <v>刘浩楠</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E15" s="46"/>
-      <c r="F15" s="50"/>
+      <c r="F15" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G15" s="46"/>
-      <c r="H15" s="50"/>
+      <c r="H15" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I15" s="46"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K15" s="46"/>
       <c r="L15" s="50"/>
       <c r="M15" s="46"/>
       <c r="N15" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O15" s="46"/>
     </row>
@@ -9353,19 +9698,27 @@
         <f>IF(TRIM(学生出勤!C15)&lt;&gt;"",TRIM(学生出勤!C15),"")</f>
         <v>王鑫鑫</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="E16" s="46"/>
-      <c r="F16" s="50"/>
+      <c r="F16" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G16" s="46"/>
-      <c r="H16" s="50"/>
+      <c r="H16" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="I16" s="46"/>
-      <c r="J16" s="50"/>
+      <c r="J16" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="K16" s="46"/>
       <c r="L16" s="50"/>
       <c r="M16" s="46"/>
       <c r="N16" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="O16" s="46"/>
     </row>
@@ -9378,19 +9731,27 @@
         <f>IF(TRIM(学生出勤!C16)&lt;&gt;"",TRIM(学生出勤!C16),"")</f>
         <v>朱安琦</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E17" s="46"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G17" s="46"/>
-      <c r="H17" s="50"/>
+      <c r="H17" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I17" s="46"/>
-      <c r="J17" s="50"/>
+      <c r="J17" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K17" s="46"/>
       <c r="L17" s="50"/>
       <c r="M17" s="46"/>
       <c r="N17" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O17" s="46"/>
     </row>
@@ -9403,19 +9764,27 @@
         <f>IF(TRIM(学生出勤!C17)&lt;&gt;"",TRIM(学生出勤!C17),"")</f>
         <v>李闯</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="E18" s="59"/>
-      <c r="F18" s="50"/>
+      <c r="F18" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G18" s="74"/>
-      <c r="H18" s="50"/>
+      <c r="H18" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I18" s="59"/>
-      <c r="J18" s="50"/>
+      <c r="J18" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K18" s="46"/>
       <c r="L18" s="50"/>
       <c r="M18" s="46"/>
       <c r="N18" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O18" s="59"/>
     </row>
@@ -9428,19 +9797,27 @@
         <f>IF(TRIM(学生出勤!C18)&lt;&gt;"",TRIM(学生出勤!C18),"")</f>
         <v>刘彬鹏</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="E19" s="46"/>
-      <c r="F19" s="50"/>
+      <c r="F19" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G19" s="46"/>
-      <c r="H19" s="50"/>
+      <c r="H19" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I19" s="46"/>
-      <c r="J19" s="50"/>
+      <c r="J19" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K19" s="46"/>
       <c r="L19" s="50"/>
       <c r="M19" s="46"/>
       <c r="N19" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="O19" s="59"/>
     </row>
@@ -9467,7 +9844,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="46"/>
+      <c r="O20" s="59" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="21" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="41">
@@ -9478,19 +9857,27 @@
         <f>IF(TRIM(学生出勤!C20)&lt;&gt;"",TRIM(学生出勤!C20),"")</f>
         <v>张庆港</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E21" s="46"/>
-      <c r="F21" s="50"/>
+      <c r="F21" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G21" s="46"/>
-      <c r="H21" s="50"/>
+      <c r="H21" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I21" s="46"/>
-      <c r="J21" s="50"/>
+      <c r="J21" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="K21" s="46"/>
       <c r="L21" s="50"/>
       <c r="M21" s="46"/>
       <c r="N21" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="O21" s="46"/>
     </row>
@@ -9503,19 +9890,27 @@
         <f>IF(TRIM(学生出勤!C21)&lt;&gt;"",TRIM(学生出勤!C21),"")</f>
         <v>王玲</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="E22" s="46"/>
-      <c r="F22" s="50"/>
+      <c r="F22" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="G22" s="46"/>
-      <c r="H22" s="50"/>
+      <c r="H22" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I22" s="46"/>
-      <c r="J22" s="50"/>
+      <c r="J22" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K22" s="46"/>
       <c r="L22" s="50"/>
       <c r="M22" s="46"/>
       <c r="N22" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="O22" s="46"/>
     </row>
@@ -9528,19 +9923,27 @@
         <f>IF(TRIM(学生出勤!C22)&lt;&gt;"",TRIM(学生出勤!C22),"")</f>
         <v>廉晓娇</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E23" s="46"/>
-      <c r="F23" s="50"/>
+      <c r="F23" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G23" s="46"/>
-      <c r="H23" s="50"/>
+      <c r="H23" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I23" s="46"/>
-      <c r="J23" s="50"/>
+      <c r="J23" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K23" s="46"/>
       <c r="L23" s="50"/>
       <c r="M23" s="46"/>
       <c r="N23" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O23" s="46"/>
     </row>
@@ -9553,19 +9956,27 @@
         <f>IF(TRIM(学生出勤!C23)&lt;&gt;"",TRIM(学生出勤!C23),"")</f>
         <v>张科</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E24" s="74"/>
-      <c r="F24" s="50"/>
+      <c r="F24" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G24" s="74"/>
-      <c r="H24" s="50"/>
+      <c r="H24" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I24" s="74"/>
-      <c r="J24" s="50"/>
+      <c r="J24" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="K24" s="46"/>
       <c r="L24" s="50"/>
       <c r="M24" s="46"/>
       <c r="N24" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="O24" s="46"/>
     </row>
@@ -9578,19 +9989,27 @@
         <f>IF(TRIM(学生出勤!C24)&lt;&gt;"",TRIM(学生出勤!C24),"")</f>
         <v>王丽慧</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E25" s="46"/>
-      <c r="F25" s="50"/>
+      <c r="F25" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="G25" s="46"/>
-      <c r="H25" s="50"/>
+      <c r="H25" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I25" s="46"/>
-      <c r="J25" s="50"/>
+      <c r="J25" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K25" s="46"/>
       <c r="L25" s="50"/>
       <c r="M25" s="46"/>
       <c r="N25" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="O25" s="46"/>
     </row>
@@ -9603,19 +10022,27 @@
         <f>IF(TRIM(学生出勤!C25)&lt;&gt;"",TRIM(学生出勤!C25),"")</f>
         <v>张嘉栋</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="E26" s="46"/>
-      <c r="F26" s="50"/>
+      <c r="F26" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="G26" s="46"/>
-      <c r="H26" s="50"/>
+      <c r="H26" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I26" s="46"/>
-      <c r="J26" s="50"/>
+      <c r="J26" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K26" s="46"/>
       <c r="L26" s="50"/>
       <c r="M26" s="46"/>
       <c r="N26" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O26" s="46"/>
     </row>
@@ -9628,19 +10055,27 @@
         <f>IF(TRIM(学生出勤!C26)&lt;&gt;"",TRIM(学生出勤!C26),"")</f>
         <v>李佳乐</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="E27" s="74"/>
-      <c r="F27" s="50"/>
+      <c r="F27" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="G27" s="74"/>
-      <c r="H27" s="50"/>
+      <c r="H27" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="I27" s="46"/>
-      <c r="J27" s="50"/>
+      <c r="J27" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="K27" s="46"/>
       <c r="L27" s="50"/>
       <c r="M27" s="46"/>
       <c r="N27" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O27" s="46"/>
     </row>
@@ -9653,19 +10088,27 @@
         <f>IF(TRIM(学生出勤!C27)&lt;&gt;"",TRIM(学生出勤!C27),"")</f>
         <v>柴旭龙</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="E28" s="46"/>
-      <c r="F28" s="50"/>
+      <c r="F28" s="50" t="s">
+        <v>153</v>
+      </c>
       <c r="G28" s="46"/>
-      <c r="H28" s="50"/>
+      <c r="H28" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="I28" s="46"/>
-      <c r="J28" s="50"/>
+      <c r="J28" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K28" s="46"/>
       <c r="L28" s="50"/>
       <c r="M28" s="46"/>
       <c r="N28" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.5</v>
       </c>
       <c r="O28" s="46"/>
     </row>
@@ -9678,19 +10121,27 @@
         <f>IF(TRIM(学生出勤!C28)&lt;&gt;"",TRIM(学生出勤!C28),"")</f>
         <v>郭文博</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E29" s="46"/>
-      <c r="F29" s="50"/>
+      <c r="F29" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G29" s="46"/>
-      <c r="H29" s="50"/>
+      <c r="H29" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I29" s="46"/>
-      <c r="J29" s="50"/>
+      <c r="J29" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K29" s="46"/>
       <c r="L29" s="50"/>
       <c r="M29" s="46"/>
       <c r="N29" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="O29" s="46"/>
     </row>
@@ -9703,19 +10154,27 @@
         <f>IF(TRIM(学生出勤!C29)&lt;&gt;"",TRIM(学生出勤!C29),"")</f>
         <v>王宇清</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E30" s="74"/>
-      <c r="F30" s="50"/>
+      <c r="F30" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G30" s="46"/>
-      <c r="H30" s="50"/>
+      <c r="H30" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I30" s="46"/>
-      <c r="J30" s="50"/>
+      <c r="J30" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K30" s="46"/>
       <c r="L30" s="50"/>
       <c r="M30" s="46"/>
       <c r="N30" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="O30" s="46"/>
     </row>
@@ -9728,19 +10187,27 @@
         <f>IF(TRIM(学生出勤!C30)&lt;&gt;"",TRIM(学生出勤!C30),"")</f>
         <v>王玉英</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E31" s="46"/>
-      <c r="F31" s="50"/>
+      <c r="F31" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="G31" s="46"/>
-      <c r="H31" s="50"/>
+      <c r="H31" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="I31" s="46"/>
-      <c r="J31" s="50"/>
+      <c r="J31" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="K31" s="46"/>
       <c r="L31" s="50"/>
       <c r="M31" s="46"/>
       <c r="N31" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="O31" s="46"/>
     </row>
@@ -9753,19 +10220,27 @@
         <f>IF(TRIM(学生出勤!C31)&lt;&gt;"",TRIM(学生出勤!C31),"")</f>
         <v>张静</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E32" s="46"/>
-      <c r="F32" s="50"/>
+      <c r="F32" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G32" s="46"/>
-      <c r="H32" s="50"/>
+      <c r="H32" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I32" s="46"/>
-      <c r="J32" s="50"/>
+      <c r="J32" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K32" s="46"/>
       <c r="L32" s="50"/>
       <c r="M32" s="46"/>
       <c r="N32" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O32" s="46"/>
     </row>
@@ -9778,19 +10253,27 @@
         <f>IF(TRIM(学生出勤!C32)&lt;&gt;"",TRIM(学生出勤!C32),"")</f>
         <v>赵晓慧</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E33" s="46"/>
-      <c r="F33" s="50"/>
+      <c r="F33" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G33" s="46"/>
-      <c r="H33" s="50"/>
+      <c r="H33" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I33" s="46"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K33" s="46"/>
       <c r="L33" s="50"/>
       <c r="M33" s="46"/>
       <c r="N33" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O33" s="46"/>
     </row>
@@ -9803,19 +10286,27 @@
         <f>IF(TRIM(学生出勤!C33)&lt;&gt;"",TRIM(学生出勤!C33),"")</f>
         <v>王艳茹</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E34" s="46"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="G34" s="46"/>
-      <c r="H34" s="50"/>
+      <c r="H34" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="I34" s="74"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K34" s="46"/>
       <c r="L34" s="50"/>
       <c r="M34" s="46"/>
       <c r="N34" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="O34" s="46"/>
     </row>
@@ -9828,19 +10319,27 @@
         <f>IF(TRIM(学生出勤!C34)&lt;&gt;"",TRIM(学生出勤!C34),"")</f>
         <v>陈星佐</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E35" s="46"/>
-      <c r="F35" s="50"/>
+      <c r="F35" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G35" s="46"/>
-      <c r="H35" s="50"/>
+      <c r="H35" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I35" s="46"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K35" s="46"/>
       <c r="L35" s="50"/>
       <c r="M35" s="46"/>
       <c r="N35" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O35" s="46"/>
     </row>
@@ -9853,19 +10352,27 @@
         <f>IF(TRIM(学生出勤!C35)&lt;&gt;"",TRIM(学生出勤!C35),"")</f>
         <v>王芊</v>
       </c>
-      <c r="D36" s="50"/>
+      <c r="D36" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E36" s="74"/>
-      <c r="F36" s="50"/>
+      <c r="F36" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G36" s="46"/>
-      <c r="H36" s="50"/>
+      <c r="H36" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I36" s="46"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K36" s="46"/>
       <c r="L36" s="50"/>
       <c r="M36" s="46"/>
       <c r="N36" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O36" s="46"/>
     </row>
@@ -9878,19 +10385,27 @@
         <f>IF(TRIM(学生出勤!C36)&lt;&gt;"",TRIM(学生出勤!C36),"")</f>
         <v>张丽华</v>
       </c>
-      <c r="D37" s="50"/>
+      <c r="D37" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E37" s="46"/>
-      <c r="F37" s="50"/>
+      <c r="F37" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G37" s="46"/>
-      <c r="H37" s="50"/>
+      <c r="H37" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I37" s="46"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K37" s="46"/>
       <c r="L37" s="50"/>
       <c r="M37" s="46"/>
       <c r="N37" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O37" s="46"/>
     </row>
@@ -9903,19 +10418,27 @@
         <f>IF(TRIM(学生出勤!C37)&lt;&gt;"",TRIM(学生出勤!C37),"")</f>
         <v>刘强</v>
       </c>
-      <c r="D38" s="50"/>
+      <c r="D38" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E38" s="46"/>
-      <c r="F38" s="50"/>
+      <c r="F38" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G38" s="46"/>
-      <c r="H38" s="50"/>
+      <c r="H38" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I38" s="46"/>
-      <c r="J38" s="50"/>
+      <c r="J38" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K38" s="46"/>
       <c r="L38" s="50"/>
       <c r="M38" s="46"/>
       <c r="N38" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O38" s="46"/>
     </row>
@@ -9928,19 +10451,27 @@
         <f>IF(TRIM(学生出勤!C38)&lt;&gt;"",TRIM(学生出勤!C38),"")</f>
         <v>樊毅</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E39" s="46"/>
-      <c r="F39" s="50"/>
+      <c r="F39" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G39" s="46"/>
-      <c r="H39" s="50"/>
+      <c r="H39" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I39" s="46"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K39" s="46"/>
       <c r="L39" s="50"/>
       <c r="M39" s="46"/>
       <c r="N39" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="O39" s="46"/>
     </row>
@@ -9953,19 +10484,27 @@
         <f>IF(TRIM(学生出勤!C39)&lt;&gt;"",TRIM(学生出勤!C39),"")</f>
         <v>杨婧</v>
       </c>
-      <c r="D40" s="50"/>
+      <c r="D40" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E40" s="46"/>
-      <c r="F40" s="50"/>
+      <c r="F40" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G40" s="46"/>
-      <c r="H40" s="50"/>
+      <c r="H40" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I40" s="46"/>
-      <c r="J40" s="50"/>
+      <c r="J40" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K40" s="46"/>
       <c r="L40" s="50"/>
       <c r="M40" s="46"/>
       <c r="N40" s="51">
         <f t="shared" ref="N40:N58" si="2">IF(TRIM(C40)="","",IF(COUNTA(D40,F40,H40,J40,L40)=0,0,SUM(IF(ISBLANK(D40),0,LOOKUP(D40,JieDCJ)),IF(ISBLANK(F40),0,LOOKUP(F40,JieDCJ)),IF(ISBLANK(H40),0,LOOKUP(H40,JieDCJ)),IF(ISBLANK(J40),0,LOOKUP(J40,JieDCJ)),IF(ISBLANK(L40),0,LOOKUP(L40,JieDCJ)))/COUNTA(D40,F40,H40,J40,L40)))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O40" s="46"/>
     </row>
@@ -9978,19 +10517,27 @@
         <f>IF(TRIM(学生出勤!C40)&lt;&gt;"",TRIM(学生出勤!C40),"")</f>
         <v>张佳欣</v>
       </c>
-      <c r="D41" s="50"/>
+      <c r="D41" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E41" s="46"/>
-      <c r="F41" s="50"/>
+      <c r="F41" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G41" s="46"/>
-      <c r="H41" s="50"/>
+      <c r="H41" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I41" s="46"/>
-      <c r="J41" s="50"/>
+      <c r="J41" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K41" s="46"/>
       <c r="L41" s="50"/>
       <c r="M41" s="46"/>
       <c r="N41" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="O41" s="46"/>
     </row>
@@ -10003,19 +10550,27 @@
         <f>IF(TRIM(学生出勤!C41)&lt;&gt;"",TRIM(学生出勤!C41),"")</f>
         <v>郝锦荣</v>
       </c>
-      <c r="D42" s="50"/>
+      <c r="D42" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E42" s="46"/>
-      <c r="F42" s="50"/>
+      <c r="F42" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G42" s="46"/>
-      <c r="H42" s="50"/>
+      <c r="H42" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I42" s="46"/>
-      <c r="J42" s="50"/>
+      <c r="J42" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="K42" s="46"/>
       <c r="L42" s="50"/>
       <c r="M42" s="46"/>
       <c r="N42" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O42" s="46"/>
     </row>
@@ -10028,19 +10583,27 @@
         <f>IF(TRIM(学生出勤!C42)&lt;&gt;"",TRIM(学生出勤!C42),"")</f>
         <v>白钰栋</v>
       </c>
-      <c r="D43" s="50"/>
+      <c r="D43" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E43" s="46"/>
-      <c r="F43" s="50"/>
+      <c r="F43" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G43" s="46"/>
-      <c r="H43" s="50"/>
+      <c r="H43" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I43" s="46"/>
-      <c r="J43" s="50"/>
+      <c r="J43" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K43" s="46"/>
       <c r="L43" s="50"/>
       <c r="M43" s="46"/>
       <c r="N43" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O43" s="46"/>
     </row>
@@ -10053,19 +10616,27 @@
         <f>IF(TRIM(学生出勤!C43)&lt;&gt;"",TRIM(学生出勤!C43),"")</f>
         <v>闫蕾</v>
       </c>
-      <c r="D44" s="50"/>
+      <c r="D44" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E44" s="46"/>
-      <c r="F44" s="50"/>
+      <c r="F44" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G44" s="46"/>
-      <c r="H44" s="50"/>
+      <c r="H44" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I44" s="46"/>
-      <c r="J44" s="50"/>
+      <c r="J44" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K44" s="46"/>
       <c r="L44" s="50"/>
       <c r="M44" s="46"/>
       <c r="N44" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="O44" s="46"/>
     </row>
@@ -10078,19 +10649,27 @@
         <f>IF(TRIM(学生出勤!C44)&lt;&gt;"",TRIM(学生出勤!C44),"")</f>
         <v>薛婷</v>
       </c>
-      <c r="D45" s="50"/>
+      <c r="D45" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="E45" s="46"/>
-      <c r="F45" s="50"/>
+      <c r="F45" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="G45" s="46"/>
-      <c r="H45" s="50"/>
+      <c r="H45" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="I45" s="46"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K45" s="46"/>
       <c r="L45" s="50"/>
       <c r="M45" s="46"/>
       <c r="N45" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O45" s="46"/>
     </row>
@@ -10103,19 +10682,27 @@
         <f>IF(TRIM(学生出勤!C45)&lt;&gt;"",TRIM(学生出勤!C45),"")</f>
         <v>王慧</v>
       </c>
-      <c r="D46" s="50"/>
+      <c r="D46" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="E46" s="46"/>
-      <c r="F46" s="50"/>
+      <c r="F46" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="G46" s="46"/>
-      <c r="H46" s="50"/>
+      <c r="H46" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="I46" s="46"/>
-      <c r="J46" s="50"/>
+      <c r="J46" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="K46" s="46"/>
       <c r="L46" s="50"/>
       <c r="M46" s="46"/>
       <c r="N46" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="O46" s="46"/>
     </row>
@@ -10492,7 +11079,7 @@
   <dimension ref="A1:XES57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10512,36 +11099,36 @@
   <sheetData>
     <row r="1" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:12" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="2:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119" t="s">
+      <c r="B3" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="8" t="str">
         <f>IF(TRIM(学生出勤!D4)&lt;&gt;"",学生出勤!D4,"")</f>
         <v>河套学院</v>
@@ -10556,17 +11143,17 @@
       <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="124" t="str">
+      <c r="H4" s="131" t="str">
         <f>IF(TRIM(学生出勤!R4)&lt;&gt;"",学生出勤!R4,"")</f>
         <v>大数据</v>
       </c>
-      <c r="I4" s="125"/>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="123"/>
+      <c r="C5" s="130"/>
       <c r="D5" s="8" t="str">
         <f>IF(TRIM(学生出勤!D5)&lt;&gt;"",学生出勤!D5,"")</f>
         <v>17级大数据班</v>
@@ -10576,16 +11163,16 @@
       </c>
       <c r="F5" s="8" t="str">
         <f>IF(TRIM(学生出勤!K5)&lt;&gt;"",学生出勤!K5,"")</f>
-        <v/>
+        <v>樊巧莲</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="124" t="str">
+      <c r="H5" s="131" t="str">
         <f>IF(TRIM(学生出勤!R5)&lt;&gt;"",学生出勤!R5,"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="125"/>
+        <v>数据可视化</v>
+      </c>
+      <c r="I5" s="132"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10598,14 +11185,14 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="111" t="s">
+      <c r="F6" s="119"/>
+      <c r="G6" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="113"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
@@ -10621,18 +11208,18 @@
       </c>
       <c r="D7" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="107">
+        <v>100</v>
+      </c>
+      <c r="E7" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="109">
+        <v>90</v>
+      </c>
+      <c r="F7" s="115"/>
+      <c r="G7" s="116">
         <f ca="1">IF(TRIM(C7)="","",IF(ISERROR(SUM(D7*0.3+E7*0.7)),0,SUM(D7*0.3+E7*0.7)))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="110"/>
+        <v>93</v>
+      </c>
+      <c r="H7" s="117"/>
       <c r="I7" s="52"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10646,18 +11233,18 @@
       </c>
       <c r="D8" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="107">
+        <v>100</v>
+      </c>
+      <c r="E8" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116">
         <f t="shared" ref="G8:G45" ca="1" si="1">IF(TRIM(C8)="","",IF(ISERROR(SUM(D8*0.3+E8*0.7)),0,SUM(D8*0.3+E8*0.7)))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H8" s="117"/>
       <c r="I8" s="52"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10671,18 +11258,18 @@
       </c>
       <c r="D9" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="107">
+        <v>100</v>
+      </c>
+      <c r="E9" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H9" s="117"/>
       <c r="I9" s="52"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10696,18 +11283,18 @@
       </c>
       <c r="D10" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="107">
+        <v>100</v>
+      </c>
+      <c r="E10" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109">
+        <v>75</v>
+      </c>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="110"/>
+        <v>82.5</v>
+      </c>
+      <c r="H10" s="117"/>
       <c r="I10" s="52"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10721,18 +11308,18 @@
       </c>
       <c r="D11" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="107">
+        <v>100</v>
+      </c>
+      <c r="E11" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H11" s="117"/>
       <c r="I11" s="52"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10746,18 +11333,18 @@
       </c>
       <c r="D12" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="107">
+        <v>100</v>
+      </c>
+      <c r="E12" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109">
+        <v>72.5</v>
+      </c>
+      <c r="F12" s="115"/>
+      <c r="G12" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="110"/>
+        <v>80.75</v>
+      </c>
+      <c r="H12" s="117"/>
       <c r="I12" s="52"/>
       <c r="L12" s="13"/>
     </row>
@@ -10772,18 +11359,18 @@
       </c>
       <c r="D13" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="107">
+        <v>100</v>
+      </c>
+      <c r="E13" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109">
+        <v>67.5</v>
+      </c>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="110"/>
+        <v>77.25</v>
+      </c>
+      <c r="H13" s="117"/>
       <c r="I13" s="52"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10797,18 +11384,18 @@
       </c>
       <c r="D14" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="107">
+        <v>100</v>
+      </c>
+      <c r="E14" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H14" s="117"/>
       <c r="I14" s="52"/>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10822,18 +11409,18 @@
       </c>
       <c r="D15" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="107">
+        <v>100</v>
+      </c>
+      <c r="E15" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109">
+        <v>87.5</v>
+      </c>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="110"/>
+        <v>91.25</v>
+      </c>
+      <c r="H15" s="117"/>
       <c r="I15" s="52"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10847,18 +11434,18 @@
       </c>
       <c r="D16" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="107">
+        <v>100</v>
+      </c>
+      <c r="E16" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109">
+        <v>80</v>
+      </c>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="110"/>
+        <v>86</v>
+      </c>
+      <c r="H16" s="117"/>
       <c r="I16" s="52"/>
     </row>
     <row r="17" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10872,18 +11459,18 @@
       </c>
       <c r="D17" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="107">
+        <v>100</v>
+      </c>
+      <c r="E17" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109">
+        <v>70</v>
+      </c>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="110"/>
+        <v>79</v>
+      </c>
+      <c r="H17" s="117"/>
       <c r="I17" s="53"/>
     </row>
     <row r="18" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10897,18 +11484,18 @@
       </c>
       <c r="D18" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="107">
+        <v>100</v>
+      </c>
+      <c r="E18" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109">
+        <v>82.5</v>
+      </c>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="110"/>
+        <v>87.75</v>
+      </c>
+      <c r="H18" s="117"/>
       <c r="I18" s="53"/>
     </row>
     <row r="19" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10922,18 +11509,18 @@
       </c>
       <c r="D19" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="107">
+        <v>100</v>
+      </c>
+      <c r="E19" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109">
+      <c r="F19" s="115"/>
+      <c r="G19" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="110"/>
+        <v>30</v>
+      </c>
+      <c r="H19" s="117"/>
       <c r="I19" s="53"/>
     </row>
     <row r="20" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10947,18 +11534,18 @@
       </c>
       <c r="D20" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="107">
+        <v>100</v>
+      </c>
+      <c r="E20" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="109">
+        <v>72.5</v>
+      </c>
+      <c r="F20" s="115"/>
+      <c r="G20" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="110"/>
+        <v>80.75</v>
+      </c>
+      <c r="H20" s="117"/>
       <c r="I20" s="53"/>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10972,18 +11559,18 @@
       </c>
       <c r="D21" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="107">
+        <v>100</v>
+      </c>
+      <c r="E21" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109">
+        <v>67.5</v>
+      </c>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="110"/>
+        <v>77.25</v>
+      </c>
+      <c r="H21" s="117"/>
       <c r="I21" s="53"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -10997,18 +11584,18 @@
       </c>
       <c r="D22" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="107">
+        <v>100</v>
+      </c>
+      <c r="E22" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H22" s="117"/>
       <c r="I22" s="53"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11022,18 +11609,18 @@
       </c>
       <c r="D23" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="107">
+        <v>100</v>
+      </c>
+      <c r="E23" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="108"/>
-      <c r="G23" s="109">
+        <v>67.5</v>
+      </c>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="110"/>
+        <v>77.25</v>
+      </c>
+      <c r="H23" s="117"/>
       <c r="I23" s="53"/>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11047,18 +11634,18 @@
       </c>
       <c r="D24" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="107">
+        <v>100</v>
+      </c>
+      <c r="E24" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109">
+        <v>72.5</v>
+      </c>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="110"/>
+        <v>80.75</v>
+      </c>
+      <c r="H24" s="117"/>
       <c r="I24" s="53"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11072,18 +11659,18 @@
       </c>
       <c r="D25" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="107">
+        <v>100</v>
+      </c>
+      <c r="E25" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109">
+        <v>65</v>
+      </c>
+      <c r="F25" s="115"/>
+      <c r="G25" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="110"/>
+        <v>75.5</v>
+      </c>
+      <c r="H25" s="117"/>
       <c r="I25" s="53"/>
     </row>
     <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11097,18 +11684,18 @@
       </c>
       <c r="D26" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="107">
+        <v>100</v>
+      </c>
+      <c r="E26" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="108"/>
-      <c r="G26" s="109">
+        <v>90</v>
+      </c>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="110"/>
+        <v>93</v>
+      </c>
+      <c r="H26" s="117"/>
       <c r="I26" s="53"/>
     </row>
     <row r="27" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11122,18 +11709,18 @@
       </c>
       <c r="D27" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="107">
+        <v>100</v>
+      </c>
+      <c r="E27" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109">
+        <v>57.5</v>
+      </c>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="110"/>
+        <v>70.25</v>
+      </c>
+      <c r="H27" s="117"/>
       <c r="I27" s="53"/>
     </row>
     <row r="28" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11147,18 +11734,18 @@
       </c>
       <c r="D28" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="107">
+        <v>100</v>
+      </c>
+      <c r="E28" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="108"/>
-      <c r="G28" s="109">
+        <v>72.5</v>
+      </c>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="110"/>
+        <v>80.75</v>
+      </c>
+      <c r="H28" s="117"/>
       <c r="I28" s="53"/>
     </row>
     <row r="29" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11172,18 +11759,18 @@
       </c>
       <c r="D29" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="107">
+        <v>100</v>
+      </c>
+      <c r="E29" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109">
+        <v>72.5</v>
+      </c>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="110"/>
+        <v>80.75</v>
+      </c>
+      <c r="H29" s="117"/>
       <c r="I29" s="53"/>
     </row>
     <row r="30" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11197,18 +11784,18 @@
       </c>
       <c r="D30" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="107">
+        <v>100</v>
+      </c>
+      <c r="E30" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="108"/>
-      <c r="G30" s="109">
+        <v>87.5</v>
+      </c>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="110"/>
+        <v>91.25</v>
+      </c>
+      <c r="H30" s="117"/>
       <c r="I30" s="53"/>
     </row>
     <row r="31" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11222,18 +11809,18 @@
       </c>
       <c r="D31" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="107">
+        <v>100</v>
+      </c>
+      <c r="E31" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H31" s="117"/>
       <c r="I31" s="53"/>
     </row>
     <row r="32" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11247,18 +11834,18 @@
       </c>
       <c r="D32" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="107">
+        <v>100</v>
+      </c>
+      <c r="E32" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109">
+        <v>75</v>
+      </c>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="110"/>
+        <v>82.5</v>
+      </c>
+      <c r="H32" s="117"/>
       <c r="I32" s="53"/>
     </row>
     <row r="33" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11272,18 +11859,18 @@
       </c>
       <c r="D33" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="107">
+        <v>100</v>
+      </c>
+      <c r="E33" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="108"/>
-      <c r="G33" s="109">
+        <v>85</v>
+      </c>
+      <c r="F33" s="115"/>
+      <c r="G33" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="110"/>
+        <v>89.5</v>
+      </c>
+      <c r="H33" s="117"/>
       <c r="I33" s="53"/>
     </row>
     <row r="34" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11297,18 +11884,18 @@
       </c>
       <c r="D34" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="107">
+        <v>100</v>
+      </c>
+      <c r="E34" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H34" s="117"/>
       <c r="I34" s="53"/>
     </row>
     <row r="35" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11322,18 +11909,18 @@
       </c>
       <c r="D35" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="107">
+        <v>100</v>
+      </c>
+      <c r="E35" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="108"/>
-      <c r="G35" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F35" s="115"/>
+      <c r="G35" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H35" s="117"/>
       <c r="I35" s="53"/>
     </row>
     <row r="36" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11347,18 +11934,18 @@
       </c>
       <c r="D36" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="107">
+        <v>100</v>
+      </c>
+      <c r="E36" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="108"/>
-      <c r="G36" s="109">
+        <v>80</v>
+      </c>
+      <c r="F36" s="115"/>
+      <c r="G36" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="110"/>
+        <v>86</v>
+      </c>
+      <c r="H36" s="117"/>
       <c r="I36" s="53"/>
     </row>
     <row r="37" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11372,18 +11959,18 @@
       </c>
       <c r="D37" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="107">
+        <v>100</v>
+      </c>
+      <c r="E37" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="108"/>
-      <c r="G37" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F37" s="115"/>
+      <c r="G37" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H37" s="117"/>
       <c r="I37" s="53"/>
     </row>
     <row r="38" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11397,18 +11984,18 @@
       </c>
       <c r="D38" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="107">
+        <v>100</v>
+      </c>
+      <c r="E38" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="108"/>
-      <c r="G38" s="109">
+        <v>72.5</v>
+      </c>
+      <c r="F38" s="115"/>
+      <c r="G38" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="110"/>
+        <v>80.75</v>
+      </c>
+      <c r="H38" s="117"/>
       <c r="I38" s="53"/>
     </row>
     <row r="39" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11422,18 +12009,18 @@
       </c>
       <c r="D39" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="107">
+        <v>100</v>
+      </c>
+      <c r="E39" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="108"/>
-      <c r="G39" s="109">
+        <v>75</v>
+      </c>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="110"/>
+        <v>82.5</v>
+      </c>
+      <c r="H39" s="117"/>
       <c r="I39" s="53"/>
     </row>
     <row r="40" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11447,18 +12034,18 @@
       </c>
       <c r="D40" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="107">
+        <v>100</v>
+      </c>
+      <c r="E40" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109">
+        <v>77.5</v>
+      </c>
+      <c r="F40" s="115"/>
+      <c r="G40" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="110"/>
+        <v>84.25</v>
+      </c>
+      <c r="H40" s="117"/>
       <c r="I40" s="53"/>
     </row>
     <row r="41" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11472,18 +12059,18 @@
       </c>
       <c r="D41" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="107">
+        <v>100</v>
+      </c>
+      <c r="E41" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="108"/>
-      <c r="G41" s="109">
+        <v>75</v>
+      </c>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="110"/>
+        <v>82.5</v>
+      </c>
+      <c r="H41" s="117"/>
       <c r="I41" s="53"/>
     </row>
     <row r="42" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11497,18 +12084,18 @@
       </c>
       <c r="D42" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="107">
+        <v>100</v>
+      </c>
+      <c r="E42" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="108"/>
-      <c r="G42" s="109">
+        <v>70</v>
+      </c>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="110"/>
+        <v>79</v>
+      </c>
+      <c r="H42" s="117"/>
       <c r="I42" s="53"/>
     </row>
     <row r="43" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11522,18 +12109,18 @@
       </c>
       <c r="D43" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="107">
+        <v>100</v>
+      </c>
+      <c r="E43" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="109">
+        <v>72.5</v>
+      </c>
+      <c r="F43" s="115"/>
+      <c r="G43" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="110"/>
+        <v>80.75</v>
+      </c>
+      <c r="H43" s="117"/>
       <c r="I43" s="53"/>
     </row>
     <row r="44" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11547,18 +12134,18 @@
       </c>
       <c r="D44" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="107">
+        <v>100</v>
+      </c>
+      <c r="E44" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="108"/>
-      <c r="G44" s="109">
+        <v>75</v>
+      </c>
+      <c r="F44" s="115"/>
+      <c r="G44" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="110"/>
+        <v>82.5</v>
+      </c>
+      <c r="H44" s="117"/>
       <c r="I44" s="53"/>
     </row>
     <row r="45" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11572,18 +12159,18 @@
       </c>
       <c r="D45" s="56">
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="107">
+        <v>100</v>
+      </c>
+      <c r="E45" s="114">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="109">
+        <v>72.5</v>
+      </c>
+      <c r="F45" s="115"/>
+      <c r="G45" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="110"/>
+        <v>80.75</v>
+      </c>
+      <c r="H45" s="117"/>
       <c r="I45" s="53"/>
     </row>
     <row r="46" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11599,16 +12186,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E46" s="107" t="str">
+      <c r="E46" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F46" s="108"/>
-      <c r="G46" s="109" t="str">
+      <c r="F46" s="115"/>
+      <c r="G46" s="116" t="str">
         <f t="shared" ref="G46:G57" si="2">IF(TRIM(C46)="","",IF(ISERROR(SUM(D46*0.3+E46*0.7)),0,SUM(D46*0.3+E46*0.7)))</f>
         <v/>
       </c>
-      <c r="H46" s="110"/>
+      <c r="H46" s="117"/>
       <c r="I46" s="53"/>
     </row>
     <row r="47" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11624,16 +12211,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E47" s="107" t="str">
+      <c r="E47" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F47" s="108"/>
-      <c r="G47" s="109" t="str">
+      <c r="F47" s="115"/>
+      <c r="G47" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H47" s="110"/>
+      <c r="H47" s="117"/>
       <c r="I47" s="53"/>
     </row>
     <row r="48" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11649,16 +12236,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E48" s="107" t="str">
+      <c r="E48" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F48" s="108"/>
-      <c r="G48" s="109" t="str">
+      <c r="F48" s="115"/>
+      <c r="G48" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H48" s="110"/>
+      <c r="H48" s="117"/>
       <c r="I48" s="53"/>
     </row>
     <row r="49" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11674,16 +12261,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E49" s="107" t="str">
+      <c r="E49" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F49" s="108"/>
-      <c r="G49" s="109" t="str">
+      <c r="F49" s="115"/>
+      <c r="G49" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H49" s="110"/>
+      <c r="H49" s="117"/>
       <c r="I49" s="53"/>
     </row>
     <row r="50" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11699,16 +12286,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E50" s="107" t="str">
+      <c r="E50" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F50" s="108"/>
-      <c r="G50" s="109" t="str">
+      <c r="F50" s="115"/>
+      <c r="G50" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H50" s="110"/>
+      <c r="H50" s="117"/>
       <c r="I50" s="53"/>
     </row>
     <row r="51" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11724,16 +12311,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E51" s="107" t="str">
+      <c r="E51" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F51" s="108"/>
-      <c r="G51" s="109" t="str">
+      <c r="F51" s="115"/>
+      <c r="G51" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H51" s="110"/>
+      <c r="H51" s="117"/>
       <c r="I51" s="53"/>
     </row>
     <row r="52" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11749,16 +12336,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E52" s="107" t="str">
+      <c r="E52" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F52" s="108"/>
-      <c r="G52" s="109" t="str">
+      <c r="F52" s="115"/>
+      <c r="G52" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H52" s="110"/>
+      <c r="H52" s="117"/>
       <c r="I52" s="53"/>
     </row>
     <row r="53" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11774,16 +12361,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E53" s="107" t="str">
+      <c r="E53" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F53" s="108"/>
-      <c r="G53" s="109" t="str">
+      <c r="F53" s="115"/>
+      <c r="G53" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H53" s="110"/>
+      <c r="H53" s="117"/>
       <c r="I53" s="53"/>
     </row>
     <row r="54" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11799,16 +12386,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E54" s="107" t="str">
+      <c r="E54" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F54" s="108"/>
-      <c r="G54" s="109" t="str">
+      <c r="F54" s="115"/>
+      <c r="G54" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H54" s="110"/>
+      <c r="H54" s="117"/>
       <c r="I54" s="53"/>
     </row>
     <row r="55" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11824,16 +12411,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E55" s="107" t="str">
+      <c r="E55" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F55" s="108"/>
-      <c r="G55" s="109" t="str">
+      <c r="F55" s="115"/>
+      <c r="G55" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H55" s="110"/>
+      <c r="H55" s="117"/>
       <c r="I55" s="53"/>
     </row>
     <row r="56" spans="2:9" s="70" customFormat="1" x14ac:dyDescent="0.15">
@@ -11849,16 +12436,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E56" s="107" t="str">
+      <c r="E56" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F56" s="108"/>
-      <c r="G56" s="109" t="str">
+      <c r="F56" s="115"/>
+      <c r="G56" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H56" s="110"/>
+      <c r="H56" s="117"/>
       <c r="I56" s="53"/>
     </row>
     <row r="57" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -11874,16 +12461,16 @@
         <f ca="1">INDIRECT("学生出勤!R"&amp;ROW()&amp;"C"&amp;MATCH("出勤成绩",学生出勤!$A$6:$BW$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="E57" s="107" t="str">
+      <c r="E57" s="114" t="str">
         <f ca="1">INDIRECT("项目评定!R"&amp;ROW()+1&amp;"C"&amp;MATCH("项目成绩",项目评定!$A$6:$BY$6,0),FALSE)</f>
         <v/>
       </c>
-      <c r="F57" s="108"/>
-      <c r="G57" s="109" t="str">
+      <c r="F57" s="115"/>
+      <c r="G57" s="116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H57" s="110"/>
+      <c r="H57" s="117"/>
       <c r="I57" s="53"/>
     </row>
   </sheetData>
@@ -12029,7 +12616,7 @@
   <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12046,26 +12633,26 @@
   <sheetData>
     <row r="1" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:9" s="3" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
     </row>
     <row r="3" spans="2:9" s="3" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
     </row>
     <row r="4" spans="2:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
@@ -12103,14 +12690,14 @@
       </c>
       <c r="E5" s="15" t="str">
         <f>IF(TRIM(学生出勤!K5)&lt;&gt;"",学生出勤!K5,"")</f>
-        <v/>
+        <v>樊巧莲</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="15" t="str">
         <f>IF(TRIM(学生出勤!R5)&lt;&gt;"",学生出勤!R5,"")</f>
-        <v/>
+        <v>数据可视化</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -12134,52 +12721,68 @@
       <c r="B7" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130"/>
+      <c r="C7" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
     </row>
     <row r="8" spans="2:9" s="70" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="133"/>
+      <c r="C8" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140"/>
       <c r="I8" s="75"/>
     </row>
     <row r="9" spans="2:9" s="70" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="C9" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>163</v>
+      </c>
       <c r="G9" s="67"/>
     </row>
     <row r="10" spans="2:9" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
+      <c r="C10" s="138" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="140"/>
     </row>
     <row r="11" spans="2:9" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="133"/>
+      <c r="C11" s="138" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="140"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0"/>
@@ -12218,7 +12821,7 @@
   <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B23"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12235,38 +12838,38 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:13" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="2:13" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
     </row>
     <row r="4" spans="2:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="155" t="str">
+      <c r="C4" s="162" t="str">
         <f>IF(TRIM(学生出勤!D4)&lt;&gt;"",学生出勤!D4,"")</f>
         <v>河套学院</v>
       </c>
-      <c r="D4" s="155"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
@@ -12286,56 +12889,56 @@
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="155" t="str">
+      <c r="C5" s="162" t="str">
         <f>IF(TRIM(学生出勤!D5)&lt;&gt;"",学生出勤!D5,"")</f>
         <v>17级大数据班</v>
       </c>
-      <c r="D5" s="155"/>
+      <c r="D5" s="162"/>
       <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="15" t="str">
         <f>IF(TRIM(学生出勤!K5)&lt;&gt;"",学生出勤!K5,"")</f>
-        <v/>
+        <v>樊巧莲</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="15" t="str">
         <f>IF(TRIM(学生出勤!R5)&lt;&gt;"",学生出勤!R5,"")</f>
-        <v/>
+        <v>数据可视化</v>
       </c>
     </row>
     <row r="6" spans="2:13" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="164"/>
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="124">
+      <c r="F6" s="131">
         <f>IF(COUNTIF(学生出勤!C7:C57,"&gt;=!")=0,"",COUNTIF(学生出勤!C7:C57,"&gt;=!"))</f>
         <v>39</v>
       </c>
-      <c r="G6" s="158"/>
-      <c r="H6" s="125"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="132"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="139" t="s">
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -12343,7 +12946,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="135"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
@@ -12353,9 +12956,9 @@
       <c r="E8" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="148"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="155"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -12363,21 +12966,21 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="135"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="76">
         <f t="shared" ref="D9:D13" ca="1" si="0">IF(ISERROR(E9/$F$6),0,E9/$F$6)</f>
-        <v>1</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E9" s="66">
         <f ca="1">COUNTIF(实训成绩!$G$7:$G$78,"&lt;60")</f>
-        <v>39</v>
-      </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="158"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -12385,7 +12988,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="135"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
@@ -12397,9 +13000,9 @@
         <f ca="1">COUNTIF(实训成绩!$G$7:$G$78,"&lt;70")-E9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="151"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="158"/>
       <c r="I10" s="3"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -12407,21 +13010,21 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="135"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="E11" s="66">
         <f ca="1">COUNTIF(实训成绩!$G$7:$G$78,"&lt;80")-COUNTIF(实训成绩!$G$7:$G$78,"&lt;70")</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="149"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="158"/>
       <c r="I11" s="3"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -12429,21 +13032,21 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="135"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="E12" s="66">
         <f ca="1">COUNTIF(实训成绩!$G$7:$G$78,"&lt;90")-COUNTIF(实训成绩!$G$7:$G$78,"&lt;80")</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="149"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="151"/>
+        <v>27</v>
+      </c>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="158"/>
       <c r="I12" s="3"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -12451,21 +13054,21 @@
       <c r="M12" s="19"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="135"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="E13" s="66">
         <f ca="1">COUNTIF(实训成绩!$G$7:$G$78,"&gt;=90")</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="149"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="151"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="158"/>
       <c r="I13" s="3"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -12473,15 +13076,15 @@
       <c r="M13" s="19"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="135"/>
-      <c r="C14" s="140" t="s">
+      <c r="B14" s="142"/>
+      <c r="C14" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="158"/>
       <c r="I14" s="3"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
@@ -12489,80 +13092,80 @@
       <c r="M14" s="19"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="135"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="142">
+      <c r="D15" s="149">
         <f ca="1">IF(ISERROR(SUM(实训成绩!$G$7:$G$78)/F6),0,SUM(实训成绩!$G$7:$G$78)/F6)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="143"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="151"/>
+        <v>81.647435897435898</v>
+      </c>
+      <c r="E15" s="150"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="158"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="135"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="142">
+      <c r="D16" s="149">
         <f ca="1">MAX(实训成绩!$G$7:$G$78)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
+        <v>93</v>
+      </c>
+      <c r="E16" s="150"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="158"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="135"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="142">
+      <c r="D17" s="149">
         <f ca="1">MIN(实训成绩!$G$7:$G$78)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
+        <v>30</v>
+      </c>
+      <c r="E17" s="150"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="158"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="138"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="144">
+      <c r="D18" s="151">
         <f ca="1">IF(ISERROR(COUNTIF(实训成绩!$G$7:$G$78,"&gt;=60")/F6),0,COUNTIF(实训成绩!$G$7:$G$78,"&gt;=60")/F6)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="145"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="151"/>
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="E18" s="152"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="158"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="151"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="158"/>
     </row>
     <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="135"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="17" t="s">
         <v>88</v>
       </c>
@@ -12572,60 +13175,60 @@
       <c r="E20" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="149"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="151"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="158"/>
     </row>
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="135"/>
+      <c r="B21" s="142"/>
       <c r="C21" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="77" t="e">
+      <c r="D21" s="77">
         <f ca="1">成绩分布!E21/(学生出勤!Z4*学生出勤!Z5)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E21" s="66">
         <f ca="1">SUM(学生出勤!X7:'学生出勤'!X42)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="151"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="158"/>
     </row>
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="135"/>
+      <c r="B22" s="142"/>
       <c r="C22" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="77" t="e">
+      <c r="D22" s="77">
         <f ca="1">成绩分布!E22/(学生出勤!Z4*学生出勤!Z5)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E22" s="66">
         <f ca="1">SUM(学生出勤!Y7:'学生出勤'!Y42)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="149"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="151"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="158"/>
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="135"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="77" t="e">
+      <c r="D23" s="77">
         <f ca="1">成绩分布!E23/(学生出勤!Z4*学生出勤!Z5)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E23" s="66">
         <f ca="1">SUM(学生出勤!Z7:'学生出勤'!Z42)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="152"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="154"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="161"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
@@ -12729,7 +13332,7 @@
       </c>
       <c r="B2" s="21">
         <f ca="1">成绩分布!E9</f>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C2" s="21">
         <f ca="1">成绩分布!E10</f>
@@ -12737,15 +13340,15 @@
       </c>
       <c r="D2" s="21">
         <f ca="1">成绩分布!E11</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" s="21">
         <f ca="1">成绩分布!E12</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F2" s="21">
         <f ca="1">成绩分布!E13</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -12758,7 +13361,7 @@
       </c>
       <c r="L2" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
@@ -12784,7 +13387,7 @@
       </c>
       <c r="L3" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -12822,7 +13425,7 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21">
         <f ca="1">$B$2</f>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
@@ -12858,12 +13461,12 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21">
         <f ca="1">$M$4</f>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="Q5" s="23">
         <f>Q4+4+$B$5</f>
@@ -12889,12 +13492,12 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21">
         <f ca="1">$M$4</f>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="Q6" s="23">
         <f>Q5+4+$B$5</f>
@@ -12921,11 +13524,11 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21">
         <f ca="1">$M$4</f>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="O7" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="Q7" s="23">
         <f>Q6+4+$B$5</f>
@@ -12950,12 +13553,12 @@
       </c>
       <c r="L8" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21">
         <f ca="1">$M$4</f>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="O8" s="21"/>
     </row>
@@ -12970,7 +13573,7 @@
       </c>
       <c r="L9" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
@@ -12987,7 +13590,7 @@
       </c>
       <c r="L10" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
@@ -13027,7 +13630,7 @@
       <c r="N12" s="21"/>
       <c r="O12" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -13047,7 +13650,7 @@
       <c r="N13" s="21"/>
       <c r="O13" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -13067,7 +13670,7 @@
       </c>
       <c r="O14" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -13081,7 +13684,7 @@
       </c>
       <c r="L15" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="21">
@@ -13101,7 +13704,7 @@
       </c>
       <c r="L16" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
@@ -13118,7 +13721,7 @@
       </c>
       <c r="L17" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -13136,7 +13739,7 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21">
         <f ca="1">D2</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
@@ -13153,12 +13756,12 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21">
         <f ca="1">$M$18</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="20" spans="10:15" x14ac:dyDescent="0.15">
@@ -13173,12 +13776,12 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21">
         <f ca="1">$M$18</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N20" s="21"/>
       <c r="O20" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="21" spans="10:15" x14ac:dyDescent="0.15">
@@ -13194,11 +13797,11 @@
       <c r="M21" s="21"/>
       <c r="N21" s="21">
         <f ca="1">$M$18</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O21" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="22" spans="10:15" x14ac:dyDescent="0.15">
@@ -13212,12 +13815,12 @@
       </c>
       <c r="L22" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M22" s="21"/>
       <c r="N22" s="21">
         <f ca="1">$M$18</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O22" s="21"/>
     </row>
@@ -13232,7 +13835,7 @@
       </c>
       <c r="L23" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
@@ -13249,7 +13852,7 @@
       </c>
       <c r="L24" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
@@ -13267,7 +13870,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21">
         <f ca="1">E2</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
@@ -13284,12 +13887,12 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21">
         <f ca="1">$M$25</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="27" spans="10:15" x14ac:dyDescent="0.15">
@@ -13304,12 +13907,12 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21">
         <f ca="1">$M$25</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="28" spans="10:15" x14ac:dyDescent="0.15">
@@ -13325,11 +13928,11 @@
       <c r="M28" s="21"/>
       <c r="N28" s="21">
         <f ca="1">$M$25</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O28" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="29" spans="10:15" x14ac:dyDescent="0.15">
@@ -13343,12 +13946,12 @@
       </c>
       <c r="L29" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="21">
         <f ca="1">$M$25</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O29" s="21"/>
     </row>
@@ -13363,7 +13966,7 @@
       </c>
       <c r="L30" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
@@ -13380,7 +13983,7 @@
       </c>
       <c r="L31" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
@@ -13398,7 +14001,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21">
         <f ca="1">F2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
@@ -13415,12 +14018,12 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21">
         <f ca="1">$M$32</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -13435,12 +14038,12 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21">
         <f ca="1">$M$32</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -13458,11 +14061,11 @@
       <c r="M35" s="21"/>
       <c r="N35" s="21">
         <f ca="1">$M$32</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O35" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -13478,12 +14081,12 @@
       </c>
       <c r="L36" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M36" s="21"/>
       <c r="N36" s="21">
         <f ca="1">$M$32</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O36" s="21"/>
     </row>
@@ -13502,7 +14105,7 @@
       </c>
       <c r="L37" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
@@ -13523,7 +14126,7 @@
       </c>
       <c r="L38" s="21">
         <f ca="1">$B$4*MAX($B$2:$I$2)</f>
-        <v>1.3260000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
